--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_Sample_Projects.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_Sample_Projects.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EFE79D-6879-46DB-AB9F-6CA5E57C4275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34903E6-CFFA-4310-8E5B-E540CE71D292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21795" windowHeight="8805" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="261">
   <si>
     <t>PJ名</t>
   </si>
@@ -771,9 +771,6 @@
   </si>
   <si>
     <t>An Excel file containing the table definition.</t>
-  </si>
-  <si>
-    <t>Domain definition document * This document</t>
   </si>
   <si>
     <t>The Excel file that contains the domain definition.</t>
@@ -1042,6 +1039,14 @@
   </si>
   <si>
     <t>2.2. System specific-validation</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain definition document </t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>*This document</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2103,7 +2108,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2313,12 +2318,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2359,6 +2360,12 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2987,6 +2994,15 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -11526,7 +11542,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -11587,7 +11603,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="36"/>
@@ -12967,12 +12983,12 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -13064,7 +13080,7 @@
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D19" s="234" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="E19" s="234"/>
       <c r="F19" s="234"/>
@@ -13073,7 +13089,7 @@
       <c r="I19" s="234"/>
       <c r="J19" s="234"/>
       <c r="K19" s="235" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L19" s="234"/>
       <c r="M19" s="234"/>
@@ -13099,7 +13115,9 @@
       <c r="AG19" s="234"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D20" s="230"/>
+      <c r="D20" s="230" t="s">
+        <v>260</v>
+      </c>
       <c r="E20" s="230"/>
       <c r="F20" s="230"/>
       <c r="G20" s="230"/>
@@ -13107,7 +13125,7 @@
       <c r="I20" s="230"/>
       <c r="J20" s="230"/>
       <c r="K20" s="231" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L20" s="230"/>
       <c r="M20" s="230"/>
@@ -13134,7 +13152,7 @@
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.2">
@@ -13175,7 +13193,7 @@
     </row>
     <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D25" s="225" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="225"/>
       <c r="F25" s="225"/>
@@ -13184,7 +13202,7 @@
       <c r="I25" s="225"/>
       <c r="J25" s="225"/>
       <c r="K25" s="225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L25" s="225"/>
       <c r="M25" s="225"/>
@@ -13211,7 +13229,7 @@
     </row>
     <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D26" s="225" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="225"/>
       <c r="F26" s="225"/>
@@ -13220,7 +13238,7 @@
       <c r="I26" s="225"/>
       <c r="J26" s="225"/>
       <c r="K26" s="225" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L26" s="225"/>
       <c r="M26" s="225"/>
@@ -13247,7 +13265,7 @@
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D27" s="225" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="225"/>
       <c r="F27" s="225"/>
@@ -13256,7 +13274,7 @@
       <c r="I27" s="225"/>
       <c r="J27" s="225"/>
       <c r="K27" s="225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L27" s="225"/>
       <c r="M27" s="225"/>
@@ -13283,7 +13301,7 @@
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="3:33" x14ac:dyDescent="0.2">
@@ -13324,7 +13342,7 @@
     </row>
     <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D32" s="229" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="229"/>
       <c r="F32" s="229"/>
@@ -13333,7 +13351,7 @@
       <c r="I32" s="229"/>
       <c r="J32" s="229"/>
       <c r="K32" s="229" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L32" s="229"/>
       <c r="M32" s="229"/>
@@ -13367,7 +13385,7 @@
       <c r="I33" s="226"/>
       <c r="J33" s="226"/>
       <c r="K33" s="226" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L33" s="226"/>
       <c r="M33" s="226"/>
@@ -13394,7 +13412,7 @@
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D34" s="229" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="229"/>
       <c r="F34" s="229"/>
@@ -13403,7 +13421,7 @@
       <c r="I34" s="229"/>
       <c r="J34" s="229"/>
       <c r="K34" s="229" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L34" s="229"/>
       <c r="M34" s="229"/>
@@ -13437,7 +13455,7 @@
       <c r="I35" s="226"/>
       <c r="J35" s="226"/>
       <c r="K35" s="226" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L35" s="226"/>
       <c r="M35" s="226"/>
@@ -13464,7 +13482,7 @@
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="227" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="227"/>
       <c r="F36" s="227"/>
@@ -13473,7 +13491,7 @@
       <c r="I36" s="227"/>
       <c r="J36" s="227"/>
       <c r="K36" s="227" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L36" s="227"/>
       <c r="M36" s="227"/>
@@ -13532,7 +13550,7 @@
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.2">
@@ -13573,7 +13591,7 @@
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D41" s="225" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41" s="225"/>
       <c r="F41" s="225"/>
@@ -13582,7 +13600,7 @@
       <c r="I41" s="225"/>
       <c r="J41" s="225"/>
       <c r="K41" s="225" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L41" s="225"/>
       <c r="M41" s="225"/>
@@ -13641,32 +13659,32 @@
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D51" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E53" s="218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F53" s="218"/>
       <c r="G53" s="218"/>
@@ -13730,92 +13748,92 @@
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E87" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E88" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E89" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E90" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E91" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E92" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E99" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E100" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D132" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E134" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E135" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E136" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E137" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E138" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B141" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C141" s="89"/>
       <c r="D141" s="89"/>
@@ -13850,7 +13868,7 @@
     <row r="142" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B142" s="89"/>
       <c r="C142" s="89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D142" s="89"/>
       <c r="E142" s="89"/>
@@ -13884,7 +13902,7 @@
     <row r="143" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B143" s="89"/>
       <c r="C143" s="89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D143" s="89"/>
       <c r="E143" s="89"/>
@@ -13947,248 +13965,248 @@
       <c r="AD144" s="89"/>
       <c r="AE144" s="89"/>
     </row>
-    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:31" ht="24" x14ac:dyDescent="0.2">
       <c r="B145" s="89"/>
-      <c r="C145" s="90" t="s">
+      <c r="C145" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D145" s="90"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="90"/>
+      <c r="G145" s="90"/>
+      <c r="H145" s="90"/>
+      <c r="I145" s="90"/>
+      <c r="J145" s="90"/>
+      <c r="K145" s="91"/>
+      <c r="L145" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="M145" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="91"/>
-      <c r="K145" s="92"/>
-      <c r="L145" s="93" t="s">
-        <v>253</v>
-      </c>
-      <c r="M145" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="N145" s="91"/>
-      <c r="O145" s="91"/>
-      <c r="P145" s="91"/>
-      <c r="Q145" s="91"/>
-      <c r="R145" s="91"/>
-      <c r="S145" s="91"/>
-      <c r="T145" s="91"/>
-      <c r="U145" s="91"/>
-      <c r="V145" s="91"/>
-      <c r="W145" s="91"/>
-      <c r="X145" s="91"/>
-      <c r="Y145" s="91"/>
-      <c r="Z145" s="91"/>
-      <c r="AA145" s="91"/>
-      <c r="AB145" s="91"/>
-      <c r="AC145" s="91"/>
-      <c r="AD145" s="91"/>
-      <c r="AE145" s="92"/>
+      <c r="N145" s="90"/>
+      <c r="O145" s="90"/>
+      <c r="P145" s="90"/>
+      <c r="Q145" s="90"/>
+      <c r="R145" s="90"/>
+      <c r="S145" s="90"/>
+      <c r="T145" s="90"/>
+      <c r="U145" s="90"/>
+      <c r="V145" s="90"/>
+      <c r="W145" s="90"/>
+      <c r="X145" s="90"/>
+      <c r="Y145" s="90"/>
+      <c r="Z145" s="90"/>
+      <c r="AA145" s="90"/>
+      <c r="AB145" s="90"/>
+      <c r="AC145" s="90"/>
+      <c r="AD145" s="90"/>
+      <c r="AE145" s="91"/>
     </row>
     <row r="146" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B146" s="89"/>
-      <c r="C146" s="94" t="s">
+      <c r="C146" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D146" s="95"/>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="96"/>
-      <c r="H146" s="96"/>
-      <c r="I146" s="96"/>
-      <c r="J146" s="96"/>
-      <c r="K146" s="96"/>
-      <c r="L146" s="97" t="s">
+      <c r="D146" s="93"/>
+      <c r="E146" s="93"/>
+      <c r="F146" s="93"/>
+      <c r="G146" s="94"/>
+      <c r="H146" s="94"/>
+      <c r="I146" s="94"/>
+      <c r="J146" s="94"/>
+      <c r="K146" s="94"/>
+      <c r="L146" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="M146" s="96" t="s">
+      <c r="M146" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="N146" s="95"/>
-      <c r="O146" s="95"/>
-      <c r="P146" s="95"/>
-      <c r="Q146" s="95"/>
-      <c r="R146" s="95"/>
-      <c r="S146" s="95"/>
-      <c r="T146" s="95"/>
-      <c r="U146" s="95"/>
-      <c r="V146" s="95"/>
-      <c r="W146" s="95"/>
-      <c r="X146" s="95"/>
-      <c r="Y146" s="95"/>
-      <c r="Z146" s="95"/>
-      <c r="AA146" s="95"/>
-      <c r="AB146" s="95"/>
-      <c r="AC146" s="95"/>
-      <c r="AD146" s="95"/>
-      <c r="AE146" s="98"/>
+      <c r="N146" s="93"/>
+      <c r="O146" s="93"/>
+      <c r="P146" s="93"/>
+      <c r="Q146" s="93"/>
+      <c r="R146" s="93"/>
+      <c r="S146" s="93"/>
+      <c r="T146" s="93"/>
+      <c r="U146" s="93"/>
+      <c r="V146" s="93"/>
+      <c r="W146" s="93"/>
+      <c r="X146" s="93"/>
+      <c r="Y146" s="93"/>
+      <c r="Z146" s="93"/>
+      <c r="AA146" s="93"/>
+      <c r="AB146" s="93"/>
+      <c r="AC146" s="93"/>
+      <c r="AD146" s="93"/>
+      <c r="AE146" s="96"/>
     </row>
     <row r="147" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B147" s="89"/>
-      <c r="C147" s="99"/>
-      <c r="D147" s="100" t="s">
+      <c r="C147" s="97"/>
+      <c r="D147" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="E147" s="99"/>
+      <c r="F147" s="99"/>
+      <c r="G147" s="99"/>
+      <c r="H147" s="99"/>
+      <c r="I147" s="99"/>
+      <c r="J147" s="99"/>
+      <c r="K147" s="100"/>
+      <c r="L147" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="E147" s="101"/>
-      <c r="F147" s="101"/>
-      <c r="G147" s="101"/>
-      <c r="H147" s="101"/>
-      <c r="I147" s="101"/>
-      <c r="J147" s="101"/>
-      <c r="K147" s="102"/>
-      <c r="L147" s="103" t="s">
+      <c r="M147" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="M147" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="N147" s="101"/>
-      <c r="O147" s="101"/>
-      <c r="P147" s="101"/>
-      <c r="Q147" s="101"/>
-      <c r="R147" s="101"/>
-      <c r="S147" s="101"/>
-      <c r="T147" s="101"/>
-      <c r="U147" s="101"/>
-      <c r="V147" s="101"/>
-      <c r="W147" s="101"/>
-      <c r="X147" s="101"/>
-      <c r="Y147" s="101"/>
-      <c r="Z147" s="101"/>
-      <c r="AA147" s="101"/>
-      <c r="AB147" s="101"/>
-      <c r="AC147" s="101"/>
-      <c r="AD147" s="101"/>
-      <c r="AE147" s="102"/>
+      <c r="N147" s="99"/>
+      <c r="O147" s="99"/>
+      <c r="P147" s="99"/>
+      <c r="Q147" s="99"/>
+      <c r="R147" s="99"/>
+      <c r="S147" s="99"/>
+      <c r="T147" s="99"/>
+      <c r="U147" s="99"/>
+      <c r="V147" s="99"/>
+      <c r="W147" s="99"/>
+      <c r="X147" s="99"/>
+      <c r="Y147" s="99"/>
+      <c r="Z147" s="99"/>
+      <c r="AA147" s="99"/>
+      <c r="AB147" s="99"/>
+      <c r="AC147" s="99"/>
+      <c r="AD147" s="99"/>
+      <c r="AE147" s="100"/>
     </row>
     <row r="148" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B148" s="89"/>
-      <c r="C148" s="104"/>
-      <c r="D148" s="105" t="s">
+      <c r="C148" s="102"/>
+      <c r="D148" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="E148" s="104"/>
+      <c r="F148" s="104"/>
+      <c r="G148" s="104"/>
+      <c r="H148" s="104"/>
+      <c r="I148" s="104"/>
+      <c r="J148" s="104"/>
+      <c r="K148" s="105"/>
+      <c r="L148" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="E148" s="106"/>
-      <c r="F148" s="106"/>
-      <c r="G148" s="106"/>
-      <c r="H148" s="106"/>
-      <c r="I148" s="106"/>
-      <c r="J148" s="106"/>
-      <c r="K148" s="107"/>
-      <c r="L148" s="108" t="s">
+      <c r="M148" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="M148" s="105" t="s">
-        <v>226</v>
-      </c>
-      <c r="N148" s="106"/>
-      <c r="O148" s="106"/>
-      <c r="P148" s="106"/>
-      <c r="Q148" s="106"/>
-      <c r="R148" s="106"/>
-      <c r="S148" s="106"/>
-      <c r="T148" s="106"/>
-      <c r="U148" s="106"/>
-      <c r="V148" s="106"/>
-      <c r="W148" s="106"/>
-      <c r="X148" s="106"/>
-      <c r="Y148" s="106"/>
-      <c r="Z148" s="106"/>
-      <c r="AA148" s="106"/>
-      <c r="AB148" s="106"/>
-      <c r="AC148" s="106"/>
-      <c r="AD148" s="106"/>
-      <c r="AE148" s="107"/>
+      <c r="N148" s="104"/>
+      <c r="O148" s="104"/>
+      <c r="P148" s="104"/>
+      <c r="Q148" s="104"/>
+      <c r="R148" s="104"/>
+      <c r="S148" s="104"/>
+      <c r="T148" s="104"/>
+      <c r="U148" s="104"/>
+      <c r="V148" s="104"/>
+      <c r="W148" s="104"/>
+      <c r="X148" s="104"/>
+      <c r="Y148" s="104"/>
+      <c r="Z148" s="104"/>
+      <c r="AA148" s="104"/>
+      <c r="AB148" s="104"/>
+      <c r="AC148" s="104"/>
+      <c r="AD148" s="104"/>
+      <c r="AE148" s="105"/>
     </row>
     <row r="149" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B149" s="89"/>
-      <c r="C149" s="94" t="s">
+      <c r="C149" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D149" s="95"/>
-      <c r="E149" s="95"/>
-      <c r="F149" s="95"/>
-      <c r="G149" s="95"/>
-      <c r="H149" s="95"/>
-      <c r="I149" s="95"/>
-      <c r="J149" s="95"/>
-      <c r="K149" s="98"/>
-      <c r="L149" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="M149" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="N149" s="95"/>
-      <c r="O149" s="95"/>
-      <c r="P149" s="95"/>
-      <c r="Q149" s="95"/>
-      <c r="R149" s="95"/>
-      <c r="S149" s="95"/>
-      <c r="T149" s="95"/>
-      <c r="U149" s="95"/>
-      <c r="V149" s="95"/>
-      <c r="W149" s="95"/>
-      <c r="X149" s="95"/>
-      <c r="Y149" s="95"/>
-      <c r="Z149" s="95"/>
-      <c r="AA149" s="95"/>
-      <c r="AB149" s="95"/>
-      <c r="AC149" s="95"/>
-      <c r="AD149" s="95"/>
-      <c r="AE149" s="98"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="93"/>
+      <c r="G149" s="93"/>
+      <c r="H149" s="93"/>
+      <c r="I149" s="93"/>
+      <c r="J149" s="93"/>
+      <c r="K149" s="96"/>
+      <c r="L149" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="M149" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="N149" s="93"/>
+      <c r="O149" s="93"/>
+      <c r="P149" s="93"/>
+      <c r="Q149" s="93"/>
+      <c r="R149" s="93"/>
+      <c r="S149" s="93"/>
+      <c r="T149" s="93"/>
+      <c r="U149" s="93"/>
+      <c r="V149" s="93"/>
+      <c r="W149" s="93"/>
+      <c r="X149" s="93"/>
+      <c r="Y149" s="93"/>
+      <c r="Z149" s="93"/>
+      <c r="AA149" s="93"/>
+      <c r="AB149" s="93"/>
+      <c r="AC149" s="93"/>
+      <c r="AD149" s="93"/>
+      <c r="AE149" s="96"/>
     </row>
     <row r="150" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B150" s="89"/>
-      <c r="C150" s="99"/>
-      <c r="D150" s="110"/>
-      <c r="E150" s="110"/>
-      <c r="F150" s="110"/>
-      <c r="G150" s="110"/>
-      <c r="H150" s="110"/>
-      <c r="I150" s="110"/>
-      <c r="J150" s="110"/>
-      <c r="K150" s="111"/>
-      <c r="L150" s="112"/>
-      <c r="M150" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="N150" s="110"/>
-      <c r="O150" s="110"/>
-      <c r="P150" s="110"/>
-      <c r="Q150" s="110"/>
-      <c r="R150" s="110"/>
-      <c r="S150" s="110"/>
-      <c r="T150" s="110"/>
-      <c r="U150" s="110"/>
-      <c r="V150" s="110"/>
-      <c r="W150" s="110"/>
-      <c r="X150" s="110"/>
-      <c r="Y150" s="110"/>
-      <c r="Z150" s="110"/>
-      <c r="AA150" s="110"/>
-      <c r="AB150" s="110"/>
-      <c r="AC150" s="110"/>
-      <c r="AD150" s="110"/>
-      <c r="AE150" s="111"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="108"/>
+      <c r="E150" s="108"/>
+      <c r="F150" s="108"/>
+      <c r="G150" s="108"/>
+      <c r="H150" s="108"/>
+      <c r="I150" s="108"/>
+      <c r="J150" s="108"/>
+      <c r="K150" s="109"/>
+      <c r="L150" s="110"/>
+      <c r="M150" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="N150" s="108"/>
+      <c r="O150" s="108"/>
+      <c r="P150" s="108"/>
+      <c r="Q150" s="108"/>
+      <c r="R150" s="108"/>
+      <c r="S150" s="108"/>
+      <c r="T150" s="108"/>
+      <c r="U150" s="108"/>
+      <c r="V150" s="108"/>
+      <c r="W150" s="108"/>
+      <c r="X150" s="108"/>
+      <c r="Y150" s="108"/>
+      <c r="Z150" s="108"/>
+      <c r="AA150" s="108"/>
+      <c r="AB150" s="108"/>
+      <c r="AC150" s="108"/>
+      <c r="AD150" s="108"/>
+      <c r="AE150" s="109"/>
     </row>
     <row r="151" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B151" s="89"/>
-      <c r="C151" s="94" t="s">
+      <c r="C151" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D151" s="95"/>
-      <c r="E151" s="95"/>
-      <c r="F151" s="95"/>
-      <c r="G151" s="95"/>
-      <c r="H151" s="95"/>
-      <c r="I151" s="95"/>
-      <c r="J151" s="95"/>
-      <c r="K151" s="98"/>
-      <c r="L151" s="113" t="s">
-        <v>225</v>
+      <c r="D151" s="93"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="93"/>
+      <c r="G151" s="93"/>
+      <c r="H151" s="93"/>
+      <c r="I151" s="93"/>
+      <c r="J151" s="93"/>
+      <c r="K151" s="96"/>
+      <c r="L151" s="111" t="s">
+        <v>224</v>
       </c>
       <c r="M151" s="219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N151" s="220"/>
       <c r="O151" s="220"/>
@@ -14211,16 +14229,16 @@
     </row>
     <row r="152" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B152" s="89"/>
-      <c r="C152" s="104"/>
-      <c r="D152" s="114"/>
-      <c r="E152" s="114"/>
-      <c r="F152" s="114"/>
-      <c r="G152" s="114"/>
-      <c r="H152" s="114"/>
-      <c r="I152" s="114"/>
-      <c r="J152" s="114"/>
-      <c r="K152" s="115"/>
-      <c r="L152" s="116"/>
+      <c r="C152" s="102"/>
+      <c r="D152" s="112"/>
+      <c r="E152" s="112"/>
+      <c r="F152" s="112"/>
+      <c r="G152" s="112"/>
+      <c r="H152" s="112"/>
+      <c r="I152" s="112"/>
+      <c r="J152" s="112"/>
+      <c r="K152" s="113"/>
+      <c r="L152" s="114"/>
       <c r="M152" s="222"/>
       <c r="N152" s="223"/>
       <c r="O152" s="223"/>
@@ -14276,7 +14294,7 @@
     <row r="154" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B154" s="89"/>
       <c r="C154" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D154" s="89"/>
       <c r="E154" s="89"/>
@@ -14342,7 +14360,7 @@
     <row r="156" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B156" s="89"/>
       <c r="C156" s="89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D156" s="89"/>
       <c r="F156" s="89"/>
@@ -14375,7 +14393,7 @@
     <row r="157" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B157" s="89"/>
       <c r="C157" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D157" s="89"/>
       <c r="F157" s="89"/>
@@ -14408,7 +14426,7 @@
     <row r="158" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B158" s="89"/>
       <c r="C158" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D158" s="89"/>
       <c r="F158" s="89"/>
@@ -14441,7 +14459,7 @@
     <row r="159" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B159" s="89"/>
       <c r="C159" s="89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D159" s="89"/>
       <c r="F159" s="89"/>
@@ -14474,7 +14492,7 @@
     <row r="160" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B160" s="89"/>
       <c r="C160" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D160" s="89"/>
       <c r="F160" s="89"/>
@@ -14507,7 +14525,7 @@
     <row r="161" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B161" s="89"/>
       <c r="C161" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D161" s="89"/>
       <c r="F161" s="89"/>
@@ -14539,7 +14557,7 @@
     </row>
     <row r="162" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C162" s="89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -14623,7 +14641,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="4.83203125" style="50"/>
+    <col min="1" max="5" width="4.83203125" style="50"/>
+    <col min="6" max="6" width="4.83203125" style="50" customWidth="1"/>
+    <col min="7" max="23" width="4.83203125" style="50"/>
     <col min="24" max="24" width="4.83203125" style="50" customWidth="1"/>
     <col min="25" max="36" width="4.83203125" style="50"/>
     <col min="37" max="39" width="4.83203125" style="50" customWidth="1"/>
@@ -15013,7 +15033,7 @@
       <c r="AI9" s="253"/>
       <c r="AJ9" s="84"/>
       <c r="AL9" s="254" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM9" s="296"/>
       <c r="AN9" s="296"/>
@@ -16053,17 +16073,17 @@
       <c r="BM21" s="258"/>
       <c r="BN21" s="258"/>
     </row>
-    <row r="22" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83">
         <v>14</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="317" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="266"/>
-      <c r="F22" s="267"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="319"/>
       <c r="G22" s="251" t="s">
         <v>143</v>
       </c>
@@ -17055,7 +17075,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="4.83203125" style="48" customWidth="1"/>
+    <col min="1" max="8" width="4.83203125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="48" customWidth="1"/>
+    <col min="10" max="29" width="4.83203125" style="48" customWidth="1"/>
     <col min="30" max="30" width="5" style="48" customWidth="1"/>
     <col min="31" max="70" width="4.83203125" style="48" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="50"/>
@@ -17216,12 +17238,12 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
@@ -17585,12 +17607,12 @@
       <c r="BQ12" s="50"/>
       <c r="BR12" s="50"/>
     </row>
-    <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78">
         <v>4</v>
       </c>
       <c r="B13" s="299" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="302"/>
       <c r="D13" s="302"/>
@@ -17741,7 +17763,7 @@
       <c r="BQ14" s="50"/>
       <c r="BR14" s="50"/>
     </row>
-    <row r="15" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78">
         <v>6</v>
       </c>
@@ -18862,7 +18884,7 @@
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
@@ -19240,7 +19262,7 @@
     <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="316" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="316"/>
       <c r="D13" s="316"/>
@@ -20082,58 +20104,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="115" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
-        <v>238</v>
+      <c r="A2" s="116" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="116" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="116" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="116" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="118" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="116" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -20143,46 +20165,46 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="117" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="117" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="119" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="117" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
-        <v>248</v>
-      </c>
-    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="117" t="s">
         <v>82</v>
       </c>
     </row>
